--- a/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals.xlsx
+++ b/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="20" windowWidth="24480" windowHeight="13320" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="20" windowWidth="24480" windowHeight="13320" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,9 @@
     <sheet name="VAR04" sheetId="4" r:id="rId5"/>
     <sheet name="VAR07" sheetId="5" r:id="rId6"/>
     <sheet name="VAR08" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Variance-Residuals" sheetId="9" r:id="rId8"/>
+    <sheet name="Variance-Initial" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>VAR01realMean_c0</t>
   </si>
@@ -129,6 +131,9 @@
   <si>
     <t>SUMA</t>
   </si>
+  <si>
+    <t>Square Errors</t>
+  </si>
 </sst>
 </file>
 
@@ -183,22 +188,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -243,6 +269,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR01'!$I$2:$I$64</c:f>
@@ -460,6 +684,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR02'!$I$2:$I$64</c:f>
@@ -677,6 +1099,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR03'!$I$2:$I$64</c:f>
@@ -894,6 +1514,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR04'!$I$2:$I$64</c:f>
@@ -1111,6 +1929,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR07'!$I$2:$I$64</c:f>
@@ -1328,6 +2344,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'VAR08'!$I$2:$I$64</c:f>
@@ -1537,6 +2751,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet7!$A$2:$A$64</c:f>
@@ -1747,28 +3159,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106788920"/>
-        <c:axId val="-2106618312"/>
+        <c:axId val="-2117108216"/>
+        <c:axId val="-2117105240"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2106788920"/>
+      <c:dateAx>
+        <c:axId val="-2117108216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106618312"/>
+        <c:crossAx val="-2117105240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="-2106618312"/>
+        <c:axId val="-2117105240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45.0"/>
@@ -1780,7 +3192,207 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106788920"/>
+        <c:crossAx val="-2117108216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Var01</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.48158633410499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Var02</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR02'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.74566073916072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Var03</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR03'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.49768508737132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Var04</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.34165134333873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Var07</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.22890626342432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Var08</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR08'!$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>96.92618633595598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2086305864"/>
+        <c:axId val="-2086315512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2086305864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086315512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086315512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086305864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,11 +3873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110276840"/>
-        <c:axId val="-2110283080"/>
+        <c:axId val="-2131743320"/>
+        <c:axId val="-2131746072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110276840"/>
+        <c:axId val="-2131743320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +3886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110283080"/>
+        <c:crossAx val="-2131746072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +3894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110283080"/>
+        <c:axId val="-2131746072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,13 +3905,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110276840"/>
+        <c:crossAx val="-2131743320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2778,11 +4391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145113176"/>
-        <c:axId val="-2109803160"/>
+        <c:axId val="-2131700536"/>
+        <c:axId val="-2131710104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145113176"/>
+        <c:axId val="-2131700536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,7 +4404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109803160"/>
+        <c:crossAx val="-2131710104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2799,7 +4412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109803160"/>
+        <c:axId val="-2131710104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,13 +4423,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145113176"/>
+        <c:crossAx val="-2131700536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3729,8 +5343,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120303512"/>
-        <c:axId val="-2120301096"/>
+        <c:axId val="-2131650696"/>
+        <c:axId val="-2130762696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3962,11 +5576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120370840"/>
-        <c:axId val="-2120291768"/>
+        <c:axId val="-2131651960"/>
+        <c:axId val="-2130898120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120303512"/>
+        <c:axId val="-2131650696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +5589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120301096"/>
+        <c:crossAx val="-2130762696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3983,7 +5597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120301096"/>
+        <c:axId val="-2130762696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,12 +5608,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120303512"/>
+        <c:crossAx val="-2131650696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120291768"/>
+        <c:axId val="-2130898120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,12 +5623,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120370840"/>
+        <c:crossAx val="-2131651960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2120370840"/>
+        <c:axId val="-2131651960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +5637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120291768"/>
+        <c:crossAx val="-2130898120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4033,6 +5647,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4289,7 +5904,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$L$1</c:f>
+              <c:f>'VAR04'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4303,7 +5918,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$L$2:$L$64</c:f>
+              <c:f>'VAR04'!$K$2:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -4511,11 +6126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120267752"/>
-        <c:axId val="-2120312456"/>
+        <c:axId val="-2131627880"/>
+        <c:axId val="-2130760136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120267752"/>
+        <c:axId val="-2131627880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,7 +6139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120312456"/>
+        <c:crossAx val="-2130760136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4532,7 +6147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120312456"/>
+        <c:axId val="-2130760136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,13 +6158,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120267752"/>
+        <c:crossAx val="-2131627880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5028,11 +6644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110243352"/>
-        <c:axId val="-2110240408"/>
+        <c:axId val="-2112913480"/>
+        <c:axId val="-2112910760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110243352"/>
+        <c:axId val="-2112913480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +6657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110240408"/>
+        <c:crossAx val="-2112910760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5049,7 +6665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110240408"/>
+        <c:axId val="-2112910760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5060,13 +6676,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110243352"/>
+        <c:crossAx val="-2112913480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5545,11 +7162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109787480"/>
-        <c:axId val="-2109784504"/>
+        <c:axId val="-2112925992"/>
+        <c:axId val="-2112948488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109787480"/>
+        <c:axId val="-2112925992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,7 +7175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109784504"/>
+        <c:crossAx val="-2112948488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5566,7 +7183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109784504"/>
+        <c:axId val="-2112948488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,13 +7194,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109787480"/>
+        <c:crossAx val="-2112925992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6062,11 +7680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109757544"/>
-        <c:axId val="-2110217432"/>
+        <c:axId val="-2112977080"/>
+        <c:axId val="-2112982728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109757544"/>
+        <c:axId val="-2112977080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,7 +7693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110217432"/>
+        <c:crossAx val="-2112982728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6083,7 +7701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110217432"/>
+        <c:axId val="-2112982728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,13 +7712,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109757544"/>
+        <c:crossAx val="-2112977080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6115,11 +7734,234 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Var01</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.996415460614644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Var02</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR02'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.101489024481042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Var03</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR03'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.681836691243799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Var04</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43.16858066861165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Var07</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.17189497881141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Var08</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR08'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.67288835625588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126107432"/>
+        <c:axId val="-2126104296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126107432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126104296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126104296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126107432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6370,6 +8212,60 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9213725" cy="5615392"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9213725" cy="5615392"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6695,15 +8591,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6734,8 +8630,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>4.1478793748009997</v>
       </c>
@@ -6766,8 +8665,12 @@
       <c r="K2">
         <v>12.3726630301065</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>1.8567707259668876E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>164.03409607443899</v>
       </c>
@@ -6798,8 +8701,12 @@
       <c r="K3">
         <v>12.2483541319368</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>4.302469956965183E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>300.07719047194701</v>
       </c>
@@ -6830,8 +8737,12 @@
       <c r="K4">
         <v>12.2123482340644</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.0972143311063071E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>624.68324391953195</v>
       </c>
@@ -6862,8 +8773,12 @@
       <c r="K5">
         <v>12.2485069224452</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>3.557333658366618E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>941.42738339371397</v>
       </c>
@@ -6894,8 +8809,12 @@
       <c r="K6">
         <v>12.384031691631501</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>6.6401957449985685E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>369.786437021241</v>
       </c>
@@ -6926,8 +8845,12 @@
       <c r="K7">
         <v>12.582557491511301</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.2456939569818604E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>857.66382822689798</v>
       </c>
@@ -6958,8 +8881,12 @@
       <c r="K8">
         <v>12.8687797371831</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2.0070897898890572E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>643.83258844879094</v>
       </c>
@@ -6990,8 +8917,12 @@
       <c r="K9">
         <v>13.249422560952601</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.5834330645129094E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>430.31150018472999</v>
       </c>
@@ -7022,8 +8953,12 @@
       <c r="K10">
         <v>13.574265377079</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1.0950153716597791E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>921.28209953641601</v>
       </c>
@@ -7054,8 +8989,12 @@
       <c r="K11">
         <v>13.908947497859399</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>8.0221872472267235E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>718.33094871066999</v>
       </c>
@@ -7086,8 +9025,12 @@
       <c r="K12">
         <v>14.515489824401801</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>8.4114383332916289E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>114.30978720303099</v>
       </c>
@@ -7118,8 +9061,12 @@
       <c r="K13">
         <v>15.0754847644058</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.6662702962276824E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>760.33075132366605</v>
       </c>
@@ -7150,8 +9097,12 @@
       <c r="K14">
         <v>15.5543655213687</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>4.1157727147816568E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>999.82250848279602</v>
       </c>
@@ -7182,8 +9133,12 @@
       <c r="K15">
         <v>15.9586398543972</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>2.1762894076051121E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>491.12649826958801</v>
       </c>
@@ -7214,8 +9169,12 @@
       <c r="K16">
         <v>16.324040396905801</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4.272713008676707E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>232.14648350176401</v>
       </c>
@@ -7246,8 +9205,12 @@
       <c r="K17">
         <v>16.6030031532535</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2.7768395534323231E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>39.096864025822697</v>
       </c>
@@ -7278,8 +9241,12 @@
       <c r="K18">
         <v>16.918258193326501</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1.7597843908273472E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>-856.34090418474898</v>
       </c>
@@ -7310,8 +9277,12 @@
       <c r="K19">
         <v>17.1859170517195</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>4.2699819353739167E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>-913.48759272838095</v>
       </c>
@@ -7342,8 +9313,12 @@
       <c r="K20">
         <v>17.4483436732394</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>6.3529781694079707E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>196.198123660731</v>
       </c>
@@ -7374,8 +9349,12 @@
       <c r="K21">
         <v>17.802492170335899</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>8.3871254600311734E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>171.25351242471399</v>
       </c>
@@ -7406,8 +9385,12 @@
       <c r="K22">
         <v>17.869387130003499</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1.328609281458216E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>-379.43962765236398</v>
       </c>
@@ -7438,8 +9421,12 @@
       <c r="K23">
         <v>18.164010449465799</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>9.056514932513882E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>1227.5329514085699</v>
       </c>
@@ -7470,8 +9457,12 @@
       <c r="K24">
         <v>18.212290262761702</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1.2527641593509387E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>691.61311292144501</v>
       </c>
@@ -7502,8 +9493,12 @@
       <c r="K25">
         <v>18.3603187073711</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>3.402217828065024E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>421.94765552796099</v>
       </c>
@@ -7534,8 +9529,12 @@
       <c r="K26">
         <v>18.520661617509798</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1.8345851521676408E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>98.945470068983695</v>
       </c>
@@ -7566,8 +9565,12 @@
       <c r="K27">
         <v>18.894475954971</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>4.6200454879098549E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>-170.90543520467099</v>
       </c>
@@ -7598,8 +9601,12 @@
       <c r="K28">
         <v>19.226622192997901</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>9.1997281112696956E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>-1611.11920244251</v>
       </c>
@@ -7630,8 +9637,12 @@
       <c r="K29">
         <v>19.6653575641621</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>3.8838968877690869E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>-936.40714601193804</v>
       </c>
@@ -7662,8 +9673,12 @@
       <c r="K30">
         <v>20.062125111034899</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>5.4867530088352229E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>-1690.26784939051</v>
       </c>
@@ -7694,8 +9709,12 @@
       <c r="K31">
         <v>20.497588200700601</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1.040016842497659E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>-1377.08284457072</v>
       </c>
@@ -7726,8 +9745,12 @@
       <c r="K32">
         <v>20.869133156068902</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>2.8233891096487836E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>-1746.79198954138</v>
       </c>
@@ -7758,8 +9781,12 @@
       <c r="K33">
         <v>21.322760774352702</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>1.8378087755019618E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>-3071.5478760322999</v>
       </c>
@@ -7790,8 +9817,12 @@
       <c r="K34">
         <v>21.5377786588334</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>3.7484607549909116E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>-2133.29351964027</v>
       </c>
@@ -7822,8 +9853,12 @@
       <c r="K35">
         <v>21.667550002317999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>3.3258408062731414E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>-3009.87921793843</v>
       </c>
@@ -7854,8 +9889,12 @@
       <c r="K36">
         <v>22.153763976890001</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>8.9232024685480821E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-2886.7238206216298</v>
       </c>
@@ -7886,8 +9925,12 @@
       <c r="K37">
         <v>22.3992242337705</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>1.768265770523489E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>-1977.26162192735</v>
       </c>
@@ -7918,8 +9961,12 @@
       <c r="K38">
         <v>22.5604777694676</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>8.8793175192621824E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>-2891.7933000736598</v>
       </c>
@@ -7950,8 +9997,12 @@
       <c r="K39">
         <v>22.622909119826801</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>4.7737834204947486E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>-2767.2094367201298</v>
       </c>
@@ -7982,8 +10033,12 @@
       <c r="K40">
         <v>22.594656393840399</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>1.1598240229623864E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>-3731.9275431677502</v>
       </c>
@@ -8014,8 +10069,12 @@
       <c r="K41">
         <v>22.444449318841201</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>4.7082086298860576E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>-4085.38684069295</v>
       </c>
@@ -8046,8 +10105,12 @@
       <c r="K42">
         <v>22.423436506779701</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>6.9466707928489456E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>-4407.2796196165</v>
       </c>
@@ -8078,8 +10141,12 @@
       <c r="K43">
         <v>22.365481110945101</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>2.7371744144375543E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>-4225.8150544349801</v>
       </c>
@@ -8110,8 +10177,12 @@
       <c r="K44">
         <v>22.520130119574699</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>7.1107793739525429E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>-4746.9495738100804</v>
       </c>
@@ -8142,8 +10213,12 @@
       <c r="K45">
         <v>22.859221544905001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.19648084400202848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-4640.7004707617898</v>
       </c>
@@ -8174,8 +10249,12 @@
       <c r="K46">
         <v>23.667391354185199</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>9.373773695496064E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>-5215.7678661120899</v>
       </c>
@@ -8206,8 +10285,12 @@
       <c r="K47">
         <v>24.103817690014498</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0.73232356027645074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>-5786.4325668031597</v>
       </c>
@@ -8238,8 +10321,12 @@
       <c r="K48">
         <v>25.189288392328901</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.53334297964021127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>-6399.9164655977402</v>
       </c>
@@ -8270,8 +10357,12 @@
       <c r="K49">
         <v>25.822458326272599</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.39097325480426787</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>-6054.7866563798098</v>
       </c>
@@ -8302,8 +10393,12 @@
       <c r="K50">
         <v>26.303042109383799</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.35721418531761367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>-6513.9567035542696</v>
       </c>
@@ -8334,8 +10429,12 @@
       <c r="K51">
         <v>26.654768484801</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.22051025561188226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>-5509.8995384086002</v>
       </c>
@@ -8366,8 +10465,12 @@
       <c r="K52">
         <v>27.009473599481101</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>6.8558010708539119E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>-5888.7113241652396</v>
       </c>
@@ -8398,8 +10501,12 @@
       <c r="K53">
         <v>26.923053753494798</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>7.5743082927578989E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-5967.80324750196</v>
       </c>
@@ -8430,8 +10537,12 @@
       <c r="K54">
         <v>26.888094208138298</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>5.8970068783606854E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>-5881.0220711890897</v>
       </c>
@@ -8462,8 +10573,12 @@
       <c r="K55">
         <v>26.848341543914199</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>8.2497403238741093E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>-6357.8921620850297</v>
       </c>
@@ -8494,8 +10609,12 @@
       <c r="K56">
         <v>26.824764052723999</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.18651799602787897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>-7474.0942664076501</v>
       </c>
@@ -8526,8 +10645,12 @@
       <c r="K57">
         <v>26.854192195604401</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.12332941820651372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>-7060.4382525185601</v>
       </c>
@@ -8558,8 +10681,12 @@
       <c r="K58">
         <v>26.874495360981399</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.19482653547916673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>-7599.6189640234898</v>
       </c>
@@ -8590,8 +10717,12 @@
       <c r="K59">
         <v>26.993410051888102</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>7.9588475689069599E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>-6530.5459603686804</v>
       </c>
@@ -8622,8 +10753,12 @@
       <c r="K60">
         <v>27.143539369433899</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>3.8082776032855613E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-5983.2104539869397</v>
       </c>
@@ -8654,8 +10789,12 @@
       <c r="K61">
         <v>27.304298684687701</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>2.1462313793531314E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>-5619.7995970478096</v>
       </c>
@@ -8686,8 +10825,12 @@
       <c r="K62">
         <v>27.509512821968499</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>5.3283460797572527E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>-6365.8935360210498</v>
       </c>
@@ -8718,8 +10861,12 @@
       <c r="K63">
         <v>27.7422710328843</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>1.2558340743527968E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>-5566.5891331113098</v>
       </c>
@@ -8749,6 +10896,20 @@
       </c>
       <c r="K64">
         <v>27.963884217105399</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>7.9964154606146449</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>25.481586334104989</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>5.9953079056424191E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8764,15 +10925,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8803,8 +10964,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>-2.1459838746083899</v>
       </c>
@@ -8835,8 +10999,12 @@
       <c r="K2">
         <v>12.372725563113301</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>1.5299307877177775E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>-7.3606811690401397</v>
       </c>
@@ -8867,8 +11035,12 @@
       <c r="K3">
         <v>12.2868537829183</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>2.6480962461821089E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>-219.98732451535</v>
       </c>
@@ -8899,8 +11071,12 @@
       <c r="K4">
         <v>12.605216145771401</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>6.4312003754948083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>380.16028000522402</v>
       </c>
@@ -8931,8 +11107,12 @@
       <c r="K5">
         <v>12.201687461949501</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.4164677125355218E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>396.93095448553203</v>
       </c>
@@ -8963,8 +11143,12 @@
       <c r="K6">
         <v>12.0687211882812</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>2.9110786096513633E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>-170.66462675710801</v>
       </c>
@@ -8995,8 +11179,12 @@
       <c r="K7">
         <v>12.1783435064442</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>4.4170272252124516E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>-154.455101583915</v>
       </c>
@@ -9027,8 +11215,12 @@
       <c r="K8">
         <v>12.1479717304423</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>9.6722748405179526E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>-344.37405137142503</v>
       </c>
@@ -9059,8 +11251,12 @@
       <c r="K9">
         <v>12.450797984288</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.6422486996357591E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>-74.515113380421198</v>
       </c>
@@ -9091,8 +11287,12 @@
       <c r="K10">
         <v>12.428840187893</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1.2504964485138742E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>40.610889664219897</v>
       </c>
@@ -9123,8 +11323,12 @@
       <c r="K11">
         <v>12.3855999414289</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.19833779803139087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>-446.14256256849097</v>
       </c>
@@ -9155,8 +11359,12 @@
       <c r="K12">
         <v>12.895849066161899</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.10240054742978787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>144.34181883778299</v>
       </c>
@@ -9187,8 +11395,12 @@
       <c r="K13">
         <v>12.6863174538731</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.66913621213919439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>-664.98189045380695</v>
       </c>
@@ -9219,8 +11431,12 @@
       <c r="K14">
         <v>13.7132323174897</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.74888688730700081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>497.65249504967198</v>
       </c>
@@ -9251,8 +11467,12 @@
       <c r="K15">
         <v>12.8267350689796</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.26933064887234409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>372.97214589401602</v>
       </c>
@@ -9283,8 +11503,12 @@
       <c r="K16">
         <v>12.1684542560588</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.21098048600816638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>-397.59763666798801</v>
       </c>
@@ -9315,8 +11539,12 @@
       <c r="K17">
         <v>12.578430155739101</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.38576873616890189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>534.59364106319401</v>
       </c>
@@ -9347,8 +11575,12 @@
       <c r="K18">
         <v>11.9080664374556</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.15606206628783031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>401.70957415652299</v>
       </c>
@@ -9379,8 +11611,12 @@
       <c r="K19">
         <v>11.349790671777001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>9.3997958429828374E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>406.311986546404</v>
       </c>
@@ -9411,8 +11647,12 @@
       <c r="K20">
         <v>10.9665380093336</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1.7282515861502066E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>-59.102560288889798</v>
       </c>
@@ -9443,8 +11683,12 @@
       <c r="K21">
         <v>10.852679124683499</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1.8084251731772676E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>-36.848206658686301</v>
       </c>
@@ -9475,8 +11719,12 @@
       <c r="K22">
         <v>10.839695847886899</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>3.4045055728362215E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>121.595823457875</v>
       </c>
@@ -9507,8 +11755,12 @@
       <c r="K23">
         <v>10.7298571660529</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1.0061356564720516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>-766.52022468478197</v>
       </c>
@@ -9539,8 +11791,12 @@
       <c r="K24">
         <v>11.200559803999701</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.20849993194599167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>389.82028773196299</v>
       </c>
@@ -9571,8 +11827,12 @@
       <c r="K25">
         <v>10.914388335279201</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.16344540436749161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>398.28340435122198</v>
       </c>
@@ -9603,8 +11863,12 @@
       <c r="K26">
         <v>10.7051328396076</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>6.6154825353874902E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>306.39923766138298</v>
       </c>
@@ -9635,8 +11899,12 @@
       <c r="K27">
         <v>10.591433416557701</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.1591708413408239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>522.22035012865103</v>
       </c>
@@ -9667,8 +11935,12 @@
       <c r="K28">
         <v>10.600963065317</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.13780205684495023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>599.49710007821398</v>
       </c>
@@ -9699,8 +11971,12 @@
       <c r="K29">
         <v>10.8971130868639</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>9.4677075861389764E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>284.55422885322798</v>
       </c>
@@ -9731,8 +12007,12 @@
       <c r="K30">
         <v>11.1769345056164</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>5.8978027528641952E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30.686497880584099</v>
       </c>
@@ -9763,8 +12043,12 @@
       <c r="K31">
         <v>11.341114589246599</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>3.2421649788287051E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>-59.790486168916701</v>
       </c>
@@ -9795,8 +12079,12 @@
       <c r="K32">
         <v>11.3931816042031</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>4.6130133078455801E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>-74.612939242650796</v>
       </c>
@@ -9827,8 +12115,12 @@
       <c r="K33">
         <v>11.4051248010084</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.33089421467110997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>-318.97205416580698</v>
       </c>
@@ -9859,8 +12151,12 @@
       <c r="K34">
         <v>11.191363187848699</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.11771990775870543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>336.80970633233602</v>
       </c>
@@ -9891,8 +12187,12 @@
       <c r="K35">
         <v>11.7210434180165</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0.10946088492180921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>364.16791689160601</v>
       </c>
@@ -9923,8 +12223,12 @@
       <c r="K36">
         <v>12.5041258432693</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0.1008719070110541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>425.13755710473498</v>
       </c>
@@ -9955,8 +12259,12 @@
       <c r="K37">
         <v>13.504836829183199</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.10703822300936178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>483.25438896980398</v>
       </c>
@@ -9987,8 +12295,12 @@
       <c r="K38">
         <v>15.0158500514701</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>3.696314780195907E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>-38.704357112761102</v>
       </c>
@@ -10019,8 +12331,12 @@
       <c r="K39">
         <v>15.333362456954999</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>2.4752700788730639E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>316.68202004713902</v>
       </c>
@@ -10051,8 +12367,12 @@
       <c r="K40">
         <v>16.520406042958001</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>9.3278438039027661E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>-115.321700617491</v>
       </c>
@@ -10083,8 +12403,12 @@
       <c r="K41">
         <v>16.521453874436499</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>5.8901955284395791E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>-36.587806298911197</v>
       </c>
@@ -10115,8 +12439,12 @@
       <c r="K42">
         <v>16.601817840221599</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>1.1283826031100737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>-481.74180760984399</v>
       </c>
@@ -10147,8 +12475,12 @@
       <c r="K43">
         <v>15.5589246021006</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0.15762749947130303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>12.9447367541649</v>
       </c>
@@ -10179,8 +12511,12 @@
       <c r="K44">
         <v>15.4300032044191</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>9.2382749213433622E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>131.24975998254399</v>
       </c>
@@ -10211,8 +12547,12 @@
       <c r="K45">
         <v>16.008601994165801</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.11842884714153683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>302.401315928337</v>
       </c>
@@ -10243,8 +12583,12 @@
       <c r="K46">
         <v>17.1833202004687</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>2.4868984665733168E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>141.93871653213901</v>
       </c>
@@ -10275,8 +12619,12 @@
       <c r="K47">
         <v>17.9207011035761</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0.19701072360988353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>352.58383290547499</v>
       </c>
@@ -10307,8 +12655,12 @@
       <c r="K48">
         <v>19.532363966405601</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>3.1618109265748834E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>89.829194138721903</v>
       </c>
@@ -10339,8 +12691,12 @@
       <c r="K49">
         <v>20.080754854919299</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.80934216346032273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>-293.34791203129799</v>
       </c>
@@ -10371,8 +12727,12 @@
       <c r="K50">
         <v>19.1759624000975</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>2.026780149721314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>-517.31190395687804</v>
       </c>
@@ -10403,8 +12763,12 @@
       <c r="K51">
         <v>17.820199598764301</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>2.0887802600275573E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>13.844900695387301</v>
       </c>
@@ -10435,8 +12799,12 @@
       <c r="K52">
         <v>17.947307207448102</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>1.1565856511292426E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>66.412752413517296</v>
       </c>
@@ -10467,8 +12835,12 @@
       <c r="K53">
         <v>18.3987345794263</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>8.6495979861172592E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>132.95820545274901</v>
       </c>
@@ -10499,8 +12871,12 @@
       <c r="K54">
         <v>19.137043440955399</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.34844865163596106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>-160.19523274715701</v>
       </c>
@@ -10531,8 +12907,12 @@
       <c r="K55">
         <v>18.783282540288301</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.15693994299610167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>214.65285831265501</v>
       </c>
@@ -10563,8 +12943,12 @@
       <c r="K56">
         <v>19.590451866675402</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>3.6166517496977462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>-421.25823070181798</v>
       </c>
@@ -10595,8 +12979,12 @@
       <c r="K57">
         <v>18.1216242043219</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.27471409217885362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>-198.399755387109</v>
       </c>
@@ -10627,8 +13015,12 @@
       <c r="K58">
         <v>17.6264433154989</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>6.807118573915961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>-817.94615132042304</v>
       </c>
@@ -10659,8 +13051,12 @@
       <c r="K59">
         <v>15.5603922680652</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.66656547127623245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>283.13909220066103</v>
       </c>
@@ -10691,8 +13087,12 @@
       <c r="K60">
         <v>16.272275300774801</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.28780459080140625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-237.00973978178399</v>
       </c>
@@ -10723,8 +13123,12 @@
       <c r="K61">
         <v>15.7255519163415</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>1.1134493741838147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>276.53554053992298</v>
       </c>
@@ -10755,8 +13159,12 @@
       <c r="K62">
         <v>16.602158335999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>5.0761485699521644E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>-28.8482006395067</v>
       </c>
@@ -10787,8 +13195,12 @@
       <c r="K63">
         <v>16.704289870515499</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>1.0130761243858977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>318.92293463725599</v>
       </c>
@@ -10818,6 +13230,20 @@
       </c>
       <c r="K64">
         <v>17.698995947394401</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>4.101489024481042</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>8.7456607391607193</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>0.38806938326790857</v>
       </c>
     </row>
   </sheetData>
@@ -10832,15 +13258,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -10871,8 +13297,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0.182013257790369</v>
       </c>
@@ -10903,8 +13332,12 @@
       <c r="K2">
         <v>12.3727336669716</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>2.1140725147477401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>33.628622764909899</v>
       </c>
@@ -10935,8 +13368,12 @@
       <c r="K3">
         <v>12.2281485145033</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>7.2258300914431455E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>-9.5958023723132495</v>
       </c>
@@ -10967,8 +13404,12 @@
       <c r="K4">
         <v>12.145779933932699</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.13869284317157499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>-494.62026696204498</v>
       </c>
@@ -10999,8 +13440,12 @@
       <c r="K5">
         <v>12.961371222256</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5.4364596187007466E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>-452.713728224524</v>
       </c>
@@ -11031,8 +13476,12 @@
       <c r="K6">
         <v>14.216044294303099</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.19176126584323669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>87.864598353989507</v>
       </c>
@@ -11063,8 +13512,12 @@
       <c r="K7">
         <v>13.978373508385699</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>9.7742343049456462E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>228.53750691180599</v>
       </c>
@@ -11095,8 +13548,12 @@
       <c r="K8">
         <v>13.599428327325599</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.17977232303500285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>580.27848036577802</v>
       </c>
@@ -11127,8 +13584,12 @@
       <c r="K9">
         <v>12.640381731702099</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2.4288520813041212E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>323.35554576508798</v>
       </c>
@@ -11159,8 +13620,12 @@
       <c r="K10">
         <v>12.1385828991094</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>8.1807436781312342E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>241.47442805781401</v>
       </c>
@@ -11191,8 +13656,12 @@
       <c r="K11">
         <v>11.760342514911899</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1.2628474980101799E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>353.64924488739803</v>
       </c>
@@ -11223,8 +13692,12 @@
       <c r="K12">
         <v>11.2401738519318</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>5.0263436258391322E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>-34.202312277541701</v>
       </c>
@@ -11255,8 +13728,12 @@
       <c r="K13">
         <v>11.276407363473201</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.8792488237777696E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>666.25944589484004</v>
       </c>
@@ -11287,8 +13764,12 @@
       <c r="K14">
         <v>10.414811433235799</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.46027123752137994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>-660.05300874547299</v>
       </c>
@@ -11319,8 +13800,12 @@
       <c r="K15">
         <v>11.5513148566168</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.68168970697864406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>-581.43212090638099</v>
       </c>
@@ -11351,8 +13836,12 @@
       <c r="K16">
         <v>12.940311238731301</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>8.125710868430136E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>276.34231354265899</v>
       </c>
@@ -11383,8 +13872,12 @@
       <c r="K17">
         <v>12.5380184237994</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.48781948030258082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>-562.19667117570202</v>
       </c>
@@ -11415,8 +13908,12 @@
       <c r="K18">
         <v>13.9678647919492</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>4.4321978113051108E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>-170.73794008079301</v>
       </c>
@@ -11447,8 +13944,12 @@
       <c r="K19">
         <v>14.6746081747681</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3.1417065650719638E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>-103.62829190078099</v>
       </c>
@@ -11479,8 +13980,12 @@
       <c r="K20">
         <v>15.1388577149469</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.37227687605084736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>378.91560364473099</v>
       </c>
@@ -11511,8 +14016,12 @@
       <c r="K21">
         <v>14.420938985678101</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.32998964297304983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>306.90393512357599</v>
       </c>
@@ -11543,8 +14052,12 @@
       <c r="K22">
         <v>13.6587170873162</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1.8687929877012559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>52.616830679471803</v>
       </c>
@@ -11575,8 +14088,12 @@
       <c r="K23">
         <v>13.5197176523737</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.38759638810715707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>839.72915300514398</v>
       </c>
@@ -11607,8 +14124,12 @@
       <c r="K24">
         <v>12.2718736830001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.62683531406018855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>-573.82260456011602</v>
       </c>
@@ -11639,8 +14160,12 @@
       <c r="K25">
         <v>13.463323283984</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.91162330567023186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>-627.32446759187906</v>
       </c>
@@ -11671,8 +14196,12 @@
       <c r="K26">
         <v>14.895310306940299</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0.55153667842342857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>-537.57849068009</v>
       </c>
@@ -11703,8 +14232,12 @@
       <c r="K27">
         <v>16.0745984843544</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.9111858762689572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>-631.01266907975798</v>
       </c>
@@ -11735,8 +14268,12 @@
       <c r="K28">
         <v>17.566676754694502</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.66090646611474535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>-572.86799330222095</v>
       </c>
@@ -11767,8 +14304,12 @@
       <c r="K29">
         <v>18.958300058109501</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>4.5288526440679489E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>-129.27037410448301</v>
       </c>
@@ -11799,8 +14340,12 @@
       <c r="K30">
         <v>19.132423127594699</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>1.0747724281892388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>389.51248332455202</v>
       </c>
@@ -11831,8 +14376,12 @@
       <c r="K31">
         <v>18.2101651324149</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.7075903378130276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>344.95560846831302</v>
       </c>
@@ -11863,8 +14412,12 @@
       <c r="K32">
         <v>17.370068079950599</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.21420461767338814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>185.35154801121899</v>
       </c>
@@ -11895,8 +14448,12 @@
       <c r="K33">
         <v>16.934859746983399</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.36077622894398936</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>249.95579834884401</v>
       </c>
@@ -11927,8 +14484,12 @@
       <c r="K34">
         <v>16.2597978746421</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>1.8794634385225797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>-669.59164087145098</v>
       </c>
@@ -11959,8 +14520,12 @@
       <c r="K35">
         <v>18.031705646570501</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>2.3875537143244756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>-760.77444927492002</v>
       </c>
@@ -11991,8 +14556,12 @@
       <c r="K36">
         <v>20.017885971790101</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>1.3666194209217108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-684.28422234384698</v>
       </c>
@@ -12023,8 +14592,12 @@
       <c r="K37">
         <v>21.5940468491196</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.95824983720578616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>-630.57884276753202</v>
       </c>
@@ -12055,8 +14628,12 @@
       <c r="K38">
         <v>23.042189033686899</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>1.3078105603983463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>215.00207580881101</v>
       </c>
@@ -12087,8 +14664,12 @@
       <c r="K39">
         <v>22.281180457430601</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>1.7886897150505964E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>-264.28283460805898</v>
       </c>
@@ -12119,8 +14700,12 @@
       <c r="K40">
         <v>22.716492038459101</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>1.5162112477257061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>322.88088800022098</v>
       </c>
@@ -12151,8 +14736,12 @@
       <c r="K41">
         <v>21.722358777141501</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.47021119904708131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>136.19309302049399</v>
       </c>
@@ -12183,8 +14772,12 @@
       <c r="K42">
         <v>21.236554187821</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>1.4138377439948131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>436.01841563781602</v>
       </c>
@@ -12215,8 +14808,12 @@
       <c r="K43">
         <v>20.103617819595801</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>3.5210275646793771E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>-286.05118818312297</v>
       </c>
@@ -12247,8 +14844,12 @@
       <c r="K44">
         <v>20.399088604117399</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.2881155782620855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>-330.155712663489</v>
       </c>
@@ -12279,8 +14880,12 @@
       <c r="K45">
         <v>21.2129200606655</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.6472151613175755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-460.84660885315998</v>
       </c>
@@ -12311,8 +14916,12 @@
       <c r="K46">
         <v>22.366095405930899</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>8.9351456566648474E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>-38.568550513143499</v>
       </c>
@@ -12343,8 +14952,12 @@
       <c r="K47">
         <v>22.401070512937299</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1.0372780574008495E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>-95.507106765908901</v>
       </c>
@@ -12375,8 +14988,12 @@
       <c r="K48">
         <v>22.685813446335501</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.52164301654051992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>159.522526452211</v>
       </c>
@@ -12407,8 +15024,12 @@
       <c r="K49">
         <v>22.251873253454001</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>1.6828920209404872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>439.39800267891297</v>
       </c>
@@ -12439,8 +15060,12 @@
       <c r="K50">
         <v>21.075086665888399</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.81128901775422257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>370.988599235359</v>
       </c>
@@ -12471,8 +15096,12 @@
       <c r="K51">
         <v>20.287859484091701</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>7.768515877993977E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>-168.030466559118</v>
       </c>
@@ -12503,8 +15132,12 @@
       <c r="K52">
         <v>20.7562300874412</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.65664732595526321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>-372.13343206358201</v>
       </c>
@@ -12535,8 +15168,12 @@
       <c r="K53">
         <v>21.835851167656401</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.14857206479855287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-208.937716975434</v>
       </c>
@@ -12567,8 +15204,12 @@
       <c r="K54">
         <v>22.488862966021401</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.87361291724957069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>304.81494977234797</v>
       </c>
@@ -12599,8 +15240,12 @@
       <c r="K55">
         <v>21.688355564942501</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.13449241382991389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>90.607691677571694</v>
       </c>
@@ -12631,8 +15276,12 @@
       <c r="K56">
         <v>21.473762975691798</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>2.2912493418645599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>539.60022789815696</v>
       </c>
@@ -12663,8 +15312,12 @@
       <c r="K57">
         <v>19.820379367250599</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>1.3231006743761933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>544.77782873735305</v>
       </c>
@@ -12695,8 +15348,12 @@
       <c r="K58">
         <v>18.6133551094916</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>1.3290334183097674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>610.82887714549099</v>
       </c>
@@ -12727,8 +15384,12 @@
       <c r="K59">
         <v>17.338679443646999</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>1.6665393199999539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>-585.14522934559</v>
       </c>
@@ -12759,8 +15420,12 @@
       <c r="K60">
         <v>18.7558567957802</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>2.7994586745844593E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-54.270433192654799</v>
       </c>
@@ -12791,8 +15456,12 @@
       <c r="K61">
         <v>18.9676116087461</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>1.2499578938961693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>-449.29359172165999</v>
       </c>
@@ -12823,8 +15492,12 @@
       <c r="K62">
         <v>20.224820391327</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>6.1941147289709779E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>132.88305432113401</v>
       </c>
@@ -12855,8 +15528,12 @@
       <c r="K63">
         <v>20.034770903262</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>6.2126139255240381E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>-20.785130772703099</v>
       </c>
@@ -12886,6 +15563,20 @@
       </c>
       <c r="K64">
         <v>20.1611579646131</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>3.6818366912437988</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>15.497685087371323</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>0.54567866926877107</v>
       </c>
     </row>
   </sheetData>
@@ -12900,15 +15591,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="1" sqref="I1:I1048576 L1:L1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12936,11 +15627,14 @@
       <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>-1.38071541066097</v>
       </c>
@@ -12968,11 +15662,15 @@
       <c r="I2">
         <v>12.3083718502363</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <v>12.3726989223976</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>2.3513310803827594E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>43.7862389929766</v>
       </c>
@@ -13000,11 +15698,15 @@
       <c r="I3">
         <v>12.155031344159701</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>12.215656360419199</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>3.7055610311615764E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>-23.9836273275785</v>
       </c>
@@ -13032,11 +15734,15 @@
       <c r="I4">
         <v>12.0941580246251</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>12.156927559587601</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.0235030364123343E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>-183.245446991054</v>
       </c>
@@ -13064,11 +15770,15 @@
       <c r="I5">
         <v>12.1953263515072</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>12.389121370622201</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>7.0591060123333549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>-322.05635759055201</v>
       </c>
@@ -13096,11 +15806,15 @@
       <c r="I6">
         <v>12.461016133251499</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>13.1934339715022</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.20712305517575208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>-432.84086785645201</v>
       </c>
@@ -13128,11 +15842,15 @@
       <c r="I7">
         <v>12.9161238734359</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>14.807187773760401</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>8.8130330733506845E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>-400.86482045300801</v>
       </c>
@@ -13160,11 +15878,15 @@
       <c r="I8">
         <v>13.212991404050999</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>16.5052375272723</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.13455706970808784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>-119.78169632649799</v>
       </c>
@@ -13192,11 +15914,15 @@
       <c r="I9">
         <v>12.8461711896297</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>16.909110151819799</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.19225361423517565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>-47.054548501992102</v>
       </c>
@@ -13224,11 +15950,15 @@
       <c r="I10">
         <v>12.4077038428008</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>16.980935679152001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.2571370777926123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>76.965209001150797</v>
       </c>
@@ -13256,11 +15986,15 @@
       <c r="I11">
         <v>11.900616988511899</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>16.681605507761802</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2.6123792664011995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>-56.933903018724799</v>
       </c>
@@ -13288,11 +16022,15 @@
       <c r="I12">
         <v>11.738988424625401</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>16.915136385744901</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>7.1970754538482076E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10.5068051132461</v>
       </c>
@@ -13320,11 +16058,15 @@
       <c r="I13">
         <v>11.4707147685604</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>16.9335013240898</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.8127051676098609E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>-100.270450386828</v>
       </c>
@@ -13352,11 +16094,15 @@
       <c r="I14">
         <v>11.466457181018599</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <v>17.3846143855808</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>4.9618380736205218E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>-219.49019438006701</v>
       </c>
@@ -13384,11 +16130,15 @@
       <c r="I15">
         <v>11.689209017680399</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>18.275424663791298</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.67582764847232246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>-485.61075307111298</v>
       </c>
@@ -13416,11 +16166,15 @@
       <c r="I16">
         <v>12.511296390453101</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>20.232448285590799</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.78633035886801106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>-547.60174434746</v>
       </c>
@@ -13448,11 +16202,15 @@
       <c r="I17">
         <v>13.398049094913601</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>22.3658620745787</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.71661737990257368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>-572.14603887767601</v>
       </c>
@@ -13480,11 +16238,15 @@
       <c r="I18">
         <v>14.244581657726499</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>24.649091825749998</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.2249974469584147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>-153.421934789343</v>
       </c>
@@ -13512,11 +16274,15 @@
       <c r="I19">
         <v>13.770242699851</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>25.2642454682316</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0.63947662811568295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>13.9827178509998</v>
       </c>
@@ -13544,11 +16310,15 @@
       <c r="I20">
         <v>12.970569874180599</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>25.273123761861399</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1.0334382477150372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>163.13059954964899</v>
       </c>
@@ -13576,11 +16346,15 @@
       <c r="I21">
         <v>11.953988225853699</v>
       </c>
-      <c r="L21">
+      <c r="K21">
         <v>24.729311199603799</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1.6520644020182311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>387.49987334432302</v>
       </c>
@@ -13608,11 +16382,15 @@
       <c r="I22">
         <v>10.668661651780701</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>23.4965902073181</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1.4449497344635454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>460.77881560814899</v>
       </c>
@@ -13640,11 +16418,15 @@
       <c r="I23">
         <v>9.4666010316522708</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>22.131454190731802</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1.220300347706921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>531.47062726538104</v>
       </c>
@@ -13672,11 +16454,15 @@
       <c r="I24">
         <v>8.3619289772818703</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>20.6488584769459</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.4345206186417761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>377.92033556004202</v>
       </c>
@@ -13704,11 +16490,15 @@
       <c r="I25">
         <v>7.7027471976172803</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>19.7935037208591</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>2.2359942112634224E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>79.678961688797202</v>
       </c>
@@ -13736,11 +16526,15 @@
       <c r="I26">
         <v>7.6554608971565399</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>19.939651752581302</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>9.055127550848599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>-118.089899102652</v>
       </c>
@@ -13768,11 +16562,15 @@
       <c r="I27">
         <v>7.9563782869971504</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>20.701368016667999</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.14303618669132284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>-162.8663269713</v>
       </c>
@@ -13800,11 +16598,15 @@
       <c r="I28">
         <v>8.3345795385700701</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>21.651617158258698</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>7.953005904190338E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>55.903801640887998</v>
       </c>
@@ -13832,11 +16634,15 @@
       <c r="I29">
         <v>8.2453999113887999</v>
       </c>
-      <c r="L29">
+      <c r="K29">
         <v>21.997302657468001</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.15371344192065334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>202.523724165673</v>
       </c>
@@ -13864,11 +16670,15 @@
       <c r="I30">
         <v>7.8533368527864198</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>21.879264880344099</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.77358414764486905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>492.633089994351</v>
       </c>
@@ -13896,11 +16706,15 @@
       <c r="I31">
         <v>6.9738005274167003</v>
       </c>
-      <c r="L31">
+      <c r="K31">
         <v>20.908292010402</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1.8303906239740433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>803.41370195495097</v>
       </c>
@@ -13928,11 +16742,15 @@
       <c r="I32">
         <v>5.62088123049835</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <v>19.060627337391299</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1.3474110600421578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>807.76844386477103</v>
       </c>
@@ -13960,11 +16778,15 @@
       <c r="I33">
         <v>4.4601008636579396</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <v>17.331685022089999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>1.4139645762023445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>903.99245766212096</v>
       </c>
@@ -13992,11 +16814,15 @@
       <c r="I34">
         <v>3.2709984390525801</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>15.420180636057699</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.167019696132058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>507.19348479636</v>
       </c>
@@ -14024,11 +16850,15 @@
       <c r="I35">
         <v>2.86231800627893</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <v>14.789362026107399</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>9.9201703467888397E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>81.3803496438846</v>
       </c>
@@ -14056,11 +16886,15 @@
       <c r="I36">
         <v>3.1772810254857702</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>15.428080693514501</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0.22179316163299179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-57.408299416802599</v>
       </c>
@@ -14088,11 +16922,15 @@
       <c r="I37">
         <v>3.6482302389185901</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <v>16.3643643639559</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.55774192549123391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>-228.53414985012401</v>
       </c>
@@ -14120,11 +16958,15 @@
       <c r="I38">
         <v>4.39505145279192</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>17.734175327026399</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>4.7403989461775216E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>208.134448200393</v>
       </c>
@@ -14152,11 +16994,15 @@
       <c r="I39">
         <v>4.3262008976294704</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <v>17.779593547114501</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>1.6554261889079703E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>247.06248847857501</v>
       </c>
@@ -14184,11 +17030,15 @@
       <c r="I40">
         <v>4.1975375310907399</v>
       </c>
-      <c r="L40">
+      <c r="K40">
         <v>17.712001735465499</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0.72573936593818356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>633.65548937996095</v>
       </c>
@@ -14216,11 +17066,15 @@
       <c r="I41">
         <v>3.3456341528029299</v>
       </c>
-      <c r="L41">
+      <c r="K41">
         <v>16.517273178676401</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.71926924661901392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>681.33350669103402</v>
       </c>
@@ -14248,11 +17102,15 @@
       <c r="I42">
         <v>2.4975367252516998</v>
       </c>
-      <c r="L42">
+      <c r="K42">
         <v>15.2795941745668</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.67040734280839065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>715.83036833502399</v>
       </c>
@@ -14280,11 +17138,15 @@
       <c r="I43">
         <v>1.6787526616498301</v>
       </c>
-      <c r="L43">
+      <c r="K43">
         <v>14.011732422924901</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0.1513564194065174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>449.10378840290798</v>
       </c>
@@ -14312,11 +17174,15 @@
       <c r="I44">
         <v>1.2897071380841201</v>
       </c>
-      <c r="L44">
+      <c r="K44">
         <v>13.460536949322799</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.67183431045532693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>-198.160838871218</v>
       </c>
@@ -14344,11 +17210,15 @@
       <c r="I45">
         <v>2.1093621328565102</v>
       </c>
-      <c r="L45">
+      <c r="K45">
         <v>14.7107208996299</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.84514261056868267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-247.45422365144501</v>
       </c>
@@ -14376,11 +17246,15 @@
       <c r="I46">
         <v>3.0286785150496498</v>
       </c>
-      <c r="L46">
+      <c r="K46">
         <v>16.078007443732702</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.19343788430235803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>8.7244076533211192</v>
       </c>
@@ -14408,11 +17282,15 @@
       <c r="I47">
         <v>3.46849425408403</v>
       </c>
-      <c r="L47">
+      <c r="K47">
         <v>16.717742375895099</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1.6377888959403508E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>149.84423666441199</v>
       </c>
@@ -14440,11 +17318,15 @@
       <c r="I48">
         <v>3.5964703806053602</v>
       </c>
-      <c r="L48">
+      <c r="K48">
         <v>16.963276424331099</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>1.1004893520348549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>725.78409346867602</v>
       </c>
@@ -14472,11 +17354,15 @@
       <c r="I49">
         <v>2.5474282689459402</v>
       </c>
-      <c r="L49">
+      <c r="K49">
         <v>15.589345654872799</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>1.5040638675698501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>849.77147077154598</v>
       </c>
@@ -14504,11 +17390,15 @@
       <c r="I50">
         <v>1.32102545275142</v>
       </c>
-      <c r="L50">
+      <c r="K50">
         <v>13.9424507511255</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.88921619877578895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>735.82753968088002</v>
       </c>
@@ -14536,11 +17426,15 @@
       <c r="I51">
         <v>0.37804284486525702</v>
       </c>
-      <c r="L51">
+      <c r="K51">
         <v>12.704025247896601</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.69806152079173056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>688.28084885635303</v>
       </c>
@@ -14568,11 +17462,15 @@
       <c r="I52">
         <v>-0.457457915632141</v>
       </c>
-      <c r="L52">
+      <c r="K52">
         <v>11.6650592911892</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.53148551076810302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>-82.444252861427998</v>
       </c>
@@ -14600,11 +17498,15 @@
       <c r="I53">
         <v>0.27157261237618802</v>
       </c>
-      <c r="L53">
+      <c r="K53">
         <v>12.722835410484301</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.59350006014592194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-127.537971125379</v>
       </c>
@@ -14632,11 +17534,15 @@
       <c r="I54">
         <v>1.0419621632826901</v>
       </c>
-      <c r="L54">
+      <c r="K54">
         <v>13.800845331764</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>4.5925532552200709E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>214.611339970919</v>
       </c>
@@ -14664,11 +17570,15 @@
       <c r="I55">
         <v>1.1097305427470101</v>
       </c>
-      <c r="L55">
+      <c r="K55">
         <v>13.8616284462869</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.30219553283461698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>516.35050334388404</v>
       </c>
@@ -14696,11 +17606,15 @@
       <c r="I56">
         <v>0.56000740076132205</v>
       </c>
-      <c r="L56">
+      <c r="K56">
         <v>13.115508354319999</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>2.3138401255104397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>1044.8209271686501</v>
       </c>
@@ -14728,11 +17642,15 @@
       <c r="I57">
         <v>-0.96112379854741603</v>
       </c>
-      <c r="L57">
+      <c r="K57">
         <v>11.1010639023004</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>5.1869674004417332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>1350.2766866418999</v>
       </c>
@@ -14760,11 +17678,15 @@
       <c r="I58">
         <v>-3.2386152695395101</v>
       </c>
-      <c r="L58">
+      <c r="K58">
         <v>8.48703687785423</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>7.4764961387427791</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>1457.1524190268001</v>
       </c>
@@ -14792,11 +17714,15 @@
       <c r="I59">
         <v>-5.9729334914629897</v>
       </c>
-      <c r="L59">
+      <c r="K59">
         <v>5.84977118518818</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>4.2862987572242055</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>1148.63608606823</v>
       </c>
@@ -14824,11 +17750,15 @@
       <c r="I60">
         <v>-8.0432713279583297</v>
       </c>
-      <c r="L60">
+      <c r="K60">
         <v>4.1415875527731796</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>6.8341097437102732E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>554.11043581188301</v>
       </c>
@@ -14856,11 +17786,15 @@
       <c r="I61">
         <v>-8.3046926305277697</v>
       </c>
-      <c r="L61">
+      <c r="K61">
         <v>4.0162528044000201</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>1.796158528525338E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>481.76261289256303</v>
       </c>
@@ -14888,11 +17822,15 @@
       <c r="I62">
         <v>-8.3470737410432498</v>
       </c>
-      <c r="L62">
+      <c r="K62">
         <v>4.0802153782399104</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0.6850615349978082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>755.90820903775602</v>
       </c>
@@ -14920,11 +17858,15 @@
       <c r="I63">
         <v>-9.1747581827224494</v>
       </c>
-      <c r="L63">
+      <c r="K63">
         <v>3.4967575502033501</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>6.0359633972084321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>1265.6126693587601</v>
       </c>
@@ -14952,8 +17894,22 @@
       <c r="I64">
         <v>-11.631577955764101</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>1.6726210180180201</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>43.168580668611654</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>29.341651343338732</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>0.8197707142625662</v>
       </c>
     </row>
   </sheetData>
@@ -14969,15 +17925,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="E1:E1048576 F1:F1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -15008,8 +17964,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2.5430634378147401</v>
       </c>
@@ -15040,8 +17999,12 @@
       <c r="K2">
         <v>12.3726889735693</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>1.9363020331265034E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>57.542637415011903</v>
       </c>
@@ -15072,8 +18035,12 @@
       <c r="K3">
         <v>12.243448125455</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>9.4930323899084634E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>152.354028960032</v>
       </c>
@@ -15104,8 +18071,12 @@
       <c r="K4">
         <v>12.1634112679384</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4.5839268732065456E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>313.79347400273099</v>
       </c>
@@ -15136,8 +18107,12 @@
       <c r="K5">
         <v>12.168917530837801</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2.6033904303129755E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>192.25905672057101</v>
       </c>
@@ -15168,8 +18143,12 @@
       <c r="K6">
         <v>12.2374622031786</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>2.2894809740410822E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>191.116443488313</v>
       </c>
@@ -15200,8 +18179,12 @@
       <c r="K7">
         <v>12.3389596794703</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3.1973425119369387E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>273.20704562692998</v>
       </c>
@@ -15232,8 +18215,12 @@
       <c r="K8">
         <v>12.4406321704211</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>9.3901444438568583E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>175.63362231338101</v>
       </c>
@@ -15264,8 +18251,12 @@
       <c r="K9">
         <v>12.729766604052701</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>4.5693286434846591E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>333.06231615077201</v>
       </c>
@@ -15296,8 +18287,12 @@
       <c r="K10">
         <v>13.0895114097654</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1.7665362468431527E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>115.472987319908</v>
       </c>
@@ -15328,8 +18323,12 @@
       <c r="K11">
         <v>13.3900600733012</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1.3232944050788136E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>261.50918686158599</v>
       </c>
@@ -15360,8 +18359,12 @@
       <c r="K12">
         <v>13.7162732585663</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>6.9409497184859911E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>294.402469458089</v>
       </c>
@@ -15392,8 +18395,12 @@
       <c r="K13">
         <v>14.2240425798031</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.9109389900786769E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>307.716020821543</v>
       </c>
@@ -15424,8 +18431,12 @@
       <c r="K14">
         <v>14.6122262290547</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>9.214285994517716E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>489.74628872290702</v>
       </c>
@@ -15456,8 +18467,12 @@
       <c r="K15">
         <v>15.3500964309195</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>5.2925674798261334E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>209.331971439407</v>
       </c>
@@ -15488,8 +18503,12 @@
       <c r="K16">
         <v>15.7386825290363</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>5.4711710022144373E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>332.69178200706199</v>
       </c>
@@ -15520,8 +18539,12 @@
       <c r="K17">
         <v>16.191112096393599</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2.196544927243943E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>248.64312115208699</v>
       </c>
@@ -15552,8 +18575,12 @@
       <c r="K18">
         <v>16.756209457990401</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>4.3709234185540345E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>-12.8520737671115</v>
       </c>
@@ -15584,8 +18611,12 @@
       <c r="K19">
         <v>17.181407909429002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>2.4673169039675434E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>68.351669862682897</v>
       </c>
@@ -15616,8 +18647,12 @@
       <c r="K20">
         <v>17.621928415033601</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>5.4332374121365456E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>-35.189026605534004</v>
       </c>
@@ -15648,8 +18683,12 @@
       <c r="K21">
         <v>17.938514483587198</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>7.4770595615153756E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>227.77557446258999</v>
       </c>
@@ -15680,8 +18719,12 @@
       <c r="K22">
         <v>18.376342397252898</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1.6222601147052702E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>294.67288003036799</v>
       </c>
@@ -15712,8 +18755,12 @@
       <c r="K23">
         <v>18.837790068599801</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>2.9559816992700866E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>739.11572890201001</v>
       </c>
@@ -15744,8 +18791,12 @@
       <c r="K24">
         <v>19.550954900023399</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>6.9834471432519332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>1096.09228736454</v>
       </c>
@@ -15776,8 +18827,12 @@
       <c r="K25">
         <v>20.541330599714399</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.16888025724595154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>730.03132476048495</v>
       </c>
@@ -15808,8 +18863,12 @@
       <c r="K26">
         <v>21.971359793350601</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0.25210332276297037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>664.14368843334103</v>
       </c>
@@ -15840,8 +18899,12 @@
       <c r="K27">
         <v>23.346612832786899</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.28400210409812515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>613.39509440827396</v>
       </c>
@@ -15872,8 +18935,12 @@
       <c r="K28">
         <v>24.645943920814801</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.19013027125515547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>209.561711490124</v>
       </c>
@@ -15904,8 +18971,12 @@
       <c r="K29">
         <v>25.512764410160401</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.21704386569507153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>349.53903823541498</v>
       </c>
@@ -15936,8 +19007,12 @@
       <c r="K30">
         <v>26.419969206669499</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.15215706711215538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>90.484999018793204</v>
       </c>
@@ -15968,8 +19043,12 @@
       <c r="K31">
         <v>27.000492039323898</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.23701039140232399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>470.65942901763299</v>
       </c>
@@ -16000,8 +19079,12 @@
       <c r="K32">
         <v>27.772513585181699</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.13191752922108321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>325.85935193828698</v>
       </c>
@@ -16032,8 +19115,12 @@
       <c r="K33">
         <v>28.236265368269802</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>4.0084065641732506E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>442.88023429898197</v>
       </c>
@@ -16064,8 +19151,12 @@
       <c r="K34">
         <v>28.388430185770201</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>2.748180712741493E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>246.353186263721</v>
       </c>
@@ -16096,8 +19187,12 @@
       <c r="K35">
         <v>28.252182590897899</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>1.446430587975344E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>-64.765953969811903</v>
       </c>
@@ -16128,8 +19223,12 @@
       <c r="K36">
         <v>28.268095959920199</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>7.4454408089749677E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-7.5585702409733697</v>
       </c>
@@ -16160,8 +19259,12 @@
       <c r="K37">
         <v>28.335938933703702</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>1.1085417661755102E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>79.573292669698702</v>
       </c>
@@ -16192,8 +19295,12 @@
       <c r="K38">
         <v>28.425470698361501</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>4.0541784523264637E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>-185.09300895225701</v>
       </c>
@@ -16224,8 +19331,12 @@
       <c r="K39">
         <v>28.2626428655064</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>3.3495071551317299E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>-267.91399150829898</v>
       </c>
@@ -16256,8 +19367,12 @@
       <c r="K40">
         <v>28.076843926600599</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>3.4771908917070977E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>-323.03613372301402</v>
       </c>
@@ -16288,8 +19403,12 @@
       <c r="K41">
         <v>27.9299885248941</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>2.9220435109629378E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>-306.44668911921502</v>
       </c>
@@ -16320,8 +19439,12 @@
       <c r="K42">
         <v>27.8763257365691</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>2.0798701824743557E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>-549.47801276942005</v>
       </c>
@@ -16352,8 +19475,12 @@
       <c r="K43">
         <v>27.7032185407169</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>7.2790209253987506E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>-531.09462913124105</v>
       </c>
@@ -16384,8 +19511,12 @@
       <c r="K44">
         <v>27.672584876303201</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>8.3859194849653595E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>-809.46304433255295</v>
       </c>
@@ -16416,8 +19547,12 @@
       <c r="K45">
         <v>27.523012431932798</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.42198762381578753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-835.87907918734902</v>
       </c>
@@ -16448,8 +19583,12 @@
       <c r="K46">
         <v>27.776797161981701</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.48879721263935788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>-1150.1647755055001</v>
       </c>
@@ -16480,8 +19619,12 @@
       <c r="K47">
         <v>27.834047270172601</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0.50999529243568376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>-1212.6568119394601</v>
       </c>
@@ -16512,8 +19655,12 @@
       <c r="K48">
         <v>27.879077900913899</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.53487672099445915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>-1213.4592455858799</v>
       </c>
@@ -16544,8 +19691,12 @@
       <c r="K49">
         <v>27.896940828256401</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.6203952882393341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>-1177.4745432703701</v>
       </c>
@@ -16576,8 +19727,12 @@
       <c r="K50">
         <v>27.9418834734443</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.44817677422301805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>-1407.6169035579501</v>
       </c>
@@ -16608,8 +19763,12 @@
       <c r="K51">
         <v>27.7412916178308</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.48563965678649063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>-1064.42296302472</v>
       </c>
@@ -16640,8 +19799,12 @@
       <c r="K52">
         <v>27.857220089756598</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.28610716871333919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>-1266.12869423915</v>
       </c>
@@ -16672,8 +19835,12 @@
       <c r="K53">
         <v>27.707643585965599</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.34669975944908749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-1328.01863091621</v>
       </c>
@@ -16704,8 +19871,12 @@
       <c r="K54">
         <v>27.627102952134202</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.59054242459184425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>-1598.7599190528199</v>
       </c>
@@ -16736,8 +19907,12 @@
       <c r="K55">
         <v>27.473788867949398</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.45506021576056499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>-1436.7532153146401</v>
       </c>
@@ -16768,8 +19943,12 @@
       <c r="K56">
         <v>27.435591299428001</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.51977437258640091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>-1558.38892557741</v>
       </c>
@@ -16800,8 +19979,12 @@
       <c r="K57">
         <v>27.297608421274401</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.64169608678653745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>-1551.67263878828</v>
       </c>
@@ -16832,8 +20015,12 @@
       <c r="K58">
         <v>27.258728107345501</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>1.4400556029243374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>-1663.9567514790399</v>
       </c>
@@ -16864,8 +20051,12 @@
       <c r="K59">
         <v>27.454774261686701</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>1.2362693552445558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>-1279.8375677245299</v>
       </c>
@@ -16896,8 +20087,12 @@
       <c r="K60">
         <v>28.072804645417399</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>1.3183124965668473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-1472.69872066534</v>
       </c>
@@ -16928,8 +20123,12 @@
       <c r="K61">
         <v>28.583211564978701</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.48867996055854723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>-1123.5586494138799</v>
       </c>
@@ -16960,8 +20159,12 @@
       <c r="K62">
         <v>29.129769465210298</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0.91352308787025926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>-1613.3080273764799</v>
       </c>
@@ -16992,8 +20195,12 @@
       <c r="K63">
         <v>29.4838942188311</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>3.8889348065138184E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>-969.10781461731699</v>
       </c>
@@ -17023,6 +20230,20 @@
       </c>
       <c r="K64">
         <v>29.807596319040101</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>27.171894978811409</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>41.228906263424328</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>0.21542697263350494</v>
       </c>
     </row>
   </sheetData>
@@ -17038,15 +20259,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -17074,8 +20295,14 @@
       <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>-5.1662740924237699E-2</v>
       </c>
@@ -17103,8 +20330,15 @@
       <c r="I2">
         <v>12.3142598641984</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>12.3727342367393</v>
+      </c>
+      <c r="N2">
+        <f>(I3-I2)^2</f>
+        <v>1.8257071133820454E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>-14.313518945027999</v>
       </c>
@@ -17132,8 +20366,15 @@
       <c r="I3">
         <v>12.1791411344315</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <v>12.2606455576299</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="0">(I4-I3)^2</f>
+        <v>6.4962522541087949E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>-40.598991013960998</v>
       </c>
@@ -17161,8 +20402,15 @@
       <c r="I4">
         <v>12.0985418028331</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <v>12.2198419659493</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>6.3954388590422512E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>-18.005193393148701</v>
       </c>
@@ -17190,8 +20438,15 @@
       <c r="I5">
         <v>12.018570315045</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <v>12.172322843537501</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>9.4513921474185213E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>13.4501028190759</v>
       </c>
@@ -17219,8 +20474,15 @@
       <c r="I6">
         <v>11.921352044398899</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6">
+        <v>12.081334682761399</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4.2982702476590997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6.9820401349606698</v>
       </c>
@@ -17248,8 +20510,15 @@
       <c r="I7">
         <v>11.855790849720499</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <v>12.0218454138144</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.0956050382542726E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>31.441789887314599</v>
       </c>
@@ -17277,8 +20546,15 @@
       <c r="I8">
         <v>11.7844073429542</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8">
+        <v>11.9415374728709</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2.0788824569854868E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>-64.5320353206627</v>
       </c>
@@ -17306,8 +20582,15 @@
       <c r="I9">
         <v>11.7988256731522</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9">
+        <v>11.9960204421273</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>7.2799650528452414E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>-90.219897404889494</v>
       </c>
@@ -17335,8 +20618,15 @@
       <c r="I10">
         <v>11.8258070835172</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10">
+        <v>12.119180236110299</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4.1809219799012641E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>-125.25311518885501</v>
       </c>
@@ -17364,8 +20654,15 @@
       <c r="I11">
         <v>11.8904671328514</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11">
+        <v>12.327001833693799</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2.1808017584354276E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>-180.82818160464001</v>
       </c>
@@ -17393,8 +20690,15 @@
       <c r="I12">
         <v>12.0381425119244</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12">
+        <v>12.6722391008093</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.6356275265399161E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>-178.00003519536</v>
       </c>
@@ -17422,8 +20726,15 @@
       <c r="I13">
         <v>12.1660341663253</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13">
+        <v>13.0681647922396</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>9.1284121263296794E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>-80.164074914619604</v>
       </c>
@@ -17451,8 +20762,15 @@
       <c r="I14">
         <v>12.135820904127501</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14">
+        <v>13.267506945373301</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3.9635039255670945E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>-42.430519627384797</v>
       </c>
@@ -17480,8 +20798,15 @@
       <c r="I15">
         <v>12.0728645388769</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15">
+        <v>13.4038122238806</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3.6008892214205647E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>36.293335069074303</v>
       </c>
@@ -17509,8 +20834,15 @@
       <c r="I16">
         <v>11.8831044476717</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16">
+        <v>13.377741409372</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1.3976809798093397E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>31.075916856421198</v>
       </c>
@@ -17538,8 +20870,15 @@
       <c r="I17">
         <v>11.764880889113799</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17">
+        <v>13.3921299715846</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1.5478731866614198E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>31.182906977229301</v>
       </c>
@@ -17567,8 +20906,15 @@
       <c r="I18">
         <v>11.6404673373334</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18">
+        <v>13.439148275810901</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1.5951180338456748E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>-100.01957717792401</v>
       </c>
@@ -17596,8 +20942,15 @@
       <c r="I19">
         <v>11.7667653196548</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19">
+        <v>13.870146002492399</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1.4881177078140814E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>-133.84256001892501</v>
       </c>
@@ -17625,8 +20978,15 @@
       <c r="I20">
         <v>11.888753749754301</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20">
+        <v>14.395301472903901</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>3.4710934669511959E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>-168.245275483547</v>
       </c>
@@ -17654,8 +21014,15 @@
       <c r="I21">
         <v>12.0750624577352</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21">
+        <v>15.0130960089827</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.15996523290327902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>-280.524798139876</v>
       </c>
@@ -17683,8 +21050,15 @@
       <c r="I22">
         <v>12.4750189965032</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22">
+        <v>15.9399328677834</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.17159432372937866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>-279.40727899003502</v>
       </c>
@@ -17712,8 +21086,15 @@
       <c r="I23">
         <v>12.889258448667499</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23">
+        <v>16.8124673946458</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.37171094083779754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>-372.54715358318498</v>
       </c>
@@ -17741,8 +21122,15 @@
       <c r="I24">
         <v>13.4989394643124</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24">
+        <v>17.919934770045199</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.27404286290809765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>-356.46718316816202</v>
       </c>
@@ -17770,8 +21158,15 @@
       <c r="I25">
         <v>14.022430498531801</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25">
+        <v>18.918181698448901</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>3.6315224721820479E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>-287.90941537971798</v>
       </c>
@@ -17799,8 +21194,15 @@
       <c r="I26">
         <v>14.2129960377088</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26">
+        <v>19.6669239762854</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>4.2242916038828106E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>-275.42981583343698</v>
       </c>
@@ -17828,8 +21230,15 @@
       <c r="I27">
         <v>14.4185268530111</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27">
+        <v>20.441957668472401</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>1.7545357301712108E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>-171.746760181063</v>
       </c>
@@ -17857,8 +21266,15 @@
       <c r="I28">
         <v>14.2860679639107</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28">
+        <v>20.896682849496099</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>1.9271401112980959E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>-245.72940439108601</v>
       </c>
@@ -17886,8 +21302,15 @@
       <c r="I29">
         <v>14.3299671679046</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29">
+        <v>21.644273922623</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>6.0078221150148678E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>-237.17752204652899</v>
       </c>
@@ -17915,8 +21338,15 @@
       <c r="I30">
         <v>14.4074773099185</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30">
+        <v>22.3422329289853</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>4.8033353448421745E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>-303.478700657481</v>
       </c>
@@ -17944,8 +21374,15 @@
       <c r="I31">
         <v>14.626642438185799</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31">
+        <v>23.1732059492631</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.1923480913043133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>-366.38784876023402</v>
       </c>
@@ -17973,8 +21410,15 @@
       <c r="I32">
         <v>15.065217507363601</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32">
+        <v>24.0771566408905</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.15866259640414584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>-389.80770549678903</v>
       </c>
@@ -18002,8 +21446,15 @@
       <c r="I33">
         <v>15.463542244737701</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33">
+        <v>24.9037385707467</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.55625900827120067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>-506.61614208534098</v>
       </c>
@@ -18031,8 +21482,15 @@
       <c r="I34">
         <v>16.209369978380799</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34">
+        <v>25.983710299963299</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.21665117961289107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>-443.01233853049098</v>
       </c>
@@ -18060,8 +21518,15 @@
       <c r="I35">
         <v>16.674828010444799</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35">
+        <v>26.8321319069113</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>3.4633156074715797E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>-351.68359182293801</v>
       </c>
@@ -18089,8 +21554,15 @@
       <c r="I36">
         <v>16.6742395110304</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36">
+        <v>27.4275210210666</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>6.9461659106935275E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-241.01245414423499</v>
       </c>
@@ -18118,8 +21590,15 @@
       <c r="I37">
         <v>16.410683712181399</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37">
+        <v>27.7753432767013</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.27817978293424039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>-131.60839700130401</v>
       </c>
@@ -18147,8 +21626,15 @@
       <c r="I38">
         <v>15.883256197792701</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38">
+        <v>27.914157813559399</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>2.6564425480388877E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>-222.61379863612899</v>
       </c>
@@ -18176,8 +21662,15 @@
       <c r="I39">
         <v>15.7202702306655</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39">
+        <v>28.355460098742999</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>1.490583640461616E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>-230.58602345260999</v>
       </c>
@@ -18205,8 +21698,15 @@
       <c r="I40">
         <v>15.598180770003999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40">
+        <v>28.821199204082198</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>4.6793323556992568E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>-326.727487101191</v>
       </c>
@@ -18234,8 +21734,15 @@
       <c r="I41">
         <v>15.814498415047099</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41">
+        <v>29.503798499091001</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.10095538096548171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>-356.67654239765398</v>
       </c>
@@ -18263,8 +21770,15 @@
       <c r="I42">
         <v>16.132233180166502</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42">
+        <v>30.201753185466501</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.15300594202522491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>-399.95510665284098</v>
       </c>
@@ -18292,8 +21806,15 @@
       <c r="I43">
         <v>16.523392919947099</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43">
+        <v>30.896301919442799</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>8.7477306347254601E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>-322.978929684425</v>
       </c>
@@ -18321,8 +21842,15 @@
       <c r="I44">
         <v>16.616922223562199</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44">
+        <v>31.2992459252422</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>2.3735108140708126E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>-300.15659939500802</v>
       </c>
@@ -18350,8 +21878,15 @@
       <c r="I45">
         <v>16.568203532959199</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45">
+        <v>31.751034465564601</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>9.0102941815456888E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-218.072583840943</v>
       </c>
@@ -18379,8 +21914,15 @@
       <c r="I46">
         <v>16.268032012298999</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46">
+        <v>32.095339626085597</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>1.15503280760912E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>-263.59389348810799</v>
       </c>
@@ -18408,8 +21950,15 @@
       <c r="I47">
         <v>16.160559559660701</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47">
+        <v>32.674183800886901</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1.877018618337346E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>-246.63753976260099</v>
       </c>
@@ -18437,8 +21986,15 @@
       <c r="I48">
         <v>16.023555230592699</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48">
+        <v>33.271203597842899</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>2.1922713174514835E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>-307.657771574317</v>
       </c>
@@ -18466,8 +22022,15 @@
       <c r="I49">
         <v>16.070376927672701</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49">
+        <v>33.9762960516845</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>2.0045410448731028E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>-347.78580128245898</v>
       </c>
@@ -18495,8 +22058,15 @@
       <c r="I50">
         <v>16.211958743061299</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50">
+        <v>34.637687258236397</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>5.8436834908911939E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>-382.69479622415002</v>
       </c>
@@ -18524,8 +22094,15 @@
       <c r="I51">
         <v>16.453695862488399</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K51">
+        <v>35.2957682469698</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>9.4361395895697464E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>-301.75647403534299</v>
       </c>
@@ -18553,8 +22130,15 @@
       <c r="I52">
         <v>16.422977562422201</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52">
+        <v>35.649120970048699</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>4.2894905115662824E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>-242.18536332418</v>
       </c>
@@ -18582,8 +22166,15 @@
       <c r="I53">
         <v>16.215866710181999</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53">
+        <v>35.934176395996097</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.14441606408330912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-188.60659649919799</v>
       </c>
@@ -18611,8 +22202,15 @@
       <c r="I54">
         <v>15.8358455738181</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54">
+        <v>36.133629565633299</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>3.7551500322784141E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>-226.09344024756001</v>
       </c>
@@ -18640,8 +22238,15 @@
       <c r="I55">
         <v>15.642063478869201</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55">
+        <v>36.4510754844354</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>7.7246913768955778E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>-238.21388546992199</v>
       </c>
@@ -18669,8 +22274,15 @@
       <c r="I56">
         <v>15.554173255426001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56">
+        <v>36.819478704128898</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.12084545811634169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>-397.68487431175998</v>
       </c>
@@ -18698,8 +22310,15 @@
       <c r="I57">
         <v>15.901801588730899</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57">
+        <v>37.506091085409899</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.2088403965249867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>-427.19552070179202</v>
       </c>
@@ -18727,8 +22346,15 @@
       <c r="I58">
         <v>16.3587921756416</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58">
+        <v>38.156894531490103</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.22793694033489459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>-456.98971934102002</v>
       </c>
@@ -18756,8 +22382,15 @@
       <c r="I59">
         <v>16.8362195945598</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59">
+        <v>38.708106311749098</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>3.5324694336706084E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>-348.18780549903101</v>
       </c>
@@ -18785,8 +22418,15 @@
       <c r="I60">
         <v>16.8956541756862</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60">
+        <v>38.956858339015596</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.22532092360222392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-200.65416879566899</v>
       </c>
@@ -18814,8 +22454,15 @@
       <c r="I61">
         <v>16.420974364021301</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61">
+        <v>38.727037592016501</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.54789858594454466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>-141.24644897898699</v>
       </c>
@@ -18843,8 +22490,15 @@
       <c r="I62">
         <v>15.680772644255301</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62">
+        <v>38.405142616124103</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0.1274444163702006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>-218.215046951468</v>
       </c>
@@ -18872,8 +22526,15 @@
       <c r="I63">
         <v>15.323779063962601</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63">
+        <v>38.464139024394697</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>0.18301602369716902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>-172.91127500177501</v>
       </c>
@@ -18900,6 +22561,23 @@
       </c>
       <c r="I64">
         <v>14.895975342967599</v>
+      </c>
+      <c r="K64">
+        <v>38.399700977688099</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>3.6728883562558798</v>
+      </c>
+      <c r="K65">
+        <f>VAR(K2:K64)</f>
+        <v>96.926186335955975</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N2:N63)/64</f>
+        <v>8.2233080468097755E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18914,20 +22592,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <f>('VAR08'!I2+'VAR07'!I2+'VAR04'!I2+'VAR03'!I2+'VAR02'!I2+'VAR01'!I2)/6</f>
         <v>12.316159246169883</v>
@@ -18936,8 +22614,11 @@
         <f>A2/6</f>
         <v>2.0526932076949804</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="2">
+        <v>39173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>('VAR08'!I3+'VAR07'!I3+'VAR04'!I3+'VAR03'!I3+'VAR02'!I3+'VAR01'!I3)/6</f>
         <v>12.17733215346145</v>
@@ -18946,8 +22627,11 @@
         <f t="shared" ref="B3:B64" si="0">A3/6</f>
         <v>2.0295553589102417</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="2">
+        <v>39234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>('VAR08'!I4+'VAR07'!I4+'VAR04'!I4+'VAR03'!I4+'VAR02'!I4+'VAR01'!I4)/6</f>
         <v>12.120991605630884</v>
@@ -18956,8 +22640,11 @@
         <f t="shared" si="0"/>
         <v>2.0201652676051474</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="2">
+        <v>39264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>('VAR08'!I5+'VAR07'!I5+'VAR04'!I5+'VAR03'!I5+'VAR02'!I5+'VAR01'!I5)/6</f>
         <v>12.127522384907117</v>
@@ -18966,8 +22653,11 @@
         <f t="shared" si="0"/>
         <v>2.0212537308178526</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="2">
+        <v>39295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>('VAR08'!I6+'VAR07'!I6+'VAR04'!I6+'VAR03'!I6+'VAR02'!I6+'VAR01'!I6)/6</f>
         <v>12.162978035537</v>
@@ -18976,8 +22666,11 @@
         <f t="shared" si="0"/>
         <v>2.0271630059228332</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="2">
+        <v>39326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>('VAR08'!I7+'VAR07'!I7+'VAR04'!I7+'VAR03'!I7+'VAR02'!I7+'VAR01'!I7)/6</f>
         <v>12.174021797719815</v>
@@ -18986,8 +22679,11 @@
         <f t="shared" si="0"/>
         <v>2.0290036329533025</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="2">
+        <v>39356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>('VAR08'!I8+'VAR07'!I8+'VAR04'!I8+'VAR03'!I8+'VAR02'!I8+'VAR01'!I8)/6</f>
         <v>12.161530518421833</v>
@@ -18996,8 +22692,11 @@
         <f t="shared" si="0"/>
         <v>2.0269217530703054</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="2">
+        <v>39417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <f>('VAR08'!I9+'VAR07'!I9+'VAR04'!I9+'VAR03'!I9+'VAR02'!I9+'VAR01'!I9)/6</f>
         <v>12.084710879529334</v>
@@ -19006,8 +22705,11 @@
         <f t="shared" si="0"/>
         <v>2.0141184799215557</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="2">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <f>('VAR08'!I10+'VAR07'!I10+'VAR04'!I10+'VAR03'!I10+'VAR02'!I10+'VAR01'!I10)/6</f>
         <v>11.977741247064715</v>
@@ -19016,8 +22718,11 @@
         <f t="shared" si="0"/>
         <v>1.9962902078441191</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="2">
+        <v>39479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <f>('VAR08'!I11+'VAR07'!I11+'VAR04'!I11+'VAR03'!I11+'VAR02'!I11+'VAR01'!I11)/6</f>
         <v>11.862560914675901</v>
@@ -19026,8 +22731,11 @@
         <f t="shared" si="0"/>
         <v>1.977093485779317</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="2">
+        <v>39508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <f>('VAR08'!I12+'VAR07'!I12+'VAR04'!I12+'VAR03'!I12+'VAR02'!I12+'VAR01'!I12)/6</f>
         <v>11.924596114218117</v>
@@ -19036,8 +22744,11 @@
         <f t="shared" si="0"/>
         <v>1.9874326857030196</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="2">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <f>('VAR08'!I13+'VAR07'!I13+'VAR04'!I13+'VAR03'!I13+'VAR02'!I13+'VAR01'!I13)/6</f>
         <v>11.875406500228316</v>
@@ -19046,8 +22757,11 @@
         <f t="shared" si="0"/>
         <v>1.9792344167047193</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="2">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <f>('VAR08'!I14+'VAR07'!I14+'VAR04'!I14+'VAR03'!I14+'VAR02'!I14+'VAR01'!I14)/6</f>
         <v>11.98266593426645</v>
@@ -19056,8 +22770,11 @@
         <f t="shared" si="0"/>
         <v>1.9971109890444083</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="2">
+        <v>39630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <f>('VAR08'!I15+'VAR07'!I15+'VAR04'!I15+'VAR03'!I15+'VAR02'!I15+'VAR01'!I15)/6</f>
         <v>11.980078223256617</v>
@@ -19066,8 +22783,11 @@
         <f t="shared" si="0"/>
         <v>1.9966797038761028</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="2">
+        <v>39661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <f>('VAR08'!I16+'VAR07'!I16+'VAR04'!I16+'VAR03'!I16+'VAR02'!I16+'VAR01'!I16)/6</f>
         <v>12.116678355899317</v>
@@ -19076,8 +22796,11 @@
         <f t="shared" si="0"/>
         <v>2.0194463926498862</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="2">
+        <v>39692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <f>('VAR08'!I17+'VAR07'!I17+'VAR04'!I17+'VAR03'!I17+'VAR02'!I17+'VAR01'!I17)/6</f>
         <v>12.25058928671195</v>
@@ -19086,8 +22809,11 @@
         <f t="shared" si="0"/>
         <v>2.0417648811186582</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="2">
+        <v>39722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <f>('VAR08'!I18+'VAR07'!I18+'VAR04'!I18+'VAR03'!I18+'VAR02'!I18+'VAR01'!I18)/6</f>
         <v>12.367238267318283</v>
@@ -19096,8 +22822,11 @@
         <f t="shared" si="0"/>
         <v>2.0612063778863807</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="2">
+        <v>39783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <f>('VAR08'!I19+'VAR07'!I19+'VAR04'!I19+'VAR03'!I19+'VAR02'!I19+'VAR01'!I19)/6</f>
         <v>12.268002171673665</v>
@@ -19106,8 +22835,11 @@
         <f t="shared" si="0"/>
         <v>2.0446670286122774</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="2">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <f>('VAR08'!I20+'VAR07'!I20+'VAR04'!I20+'VAR03'!I20+'VAR02'!I20+'VAR01'!I20)/6</f>
         <v>12.100848499927098</v>
@@ -19116,8 +22848,11 @@
         <f t="shared" si="0"/>
         <v>2.016808083321183</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="2">
+        <v>39845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <f>('VAR08'!I21+'VAR07'!I21+'VAR04'!I21+'VAR03'!I21+'VAR02'!I21+'VAR01'!I21)/6</f>
         <v>11.878100005573765</v>
@@ -19126,8 +22861,11 @@
         <f t="shared" si="0"/>
         <v>1.9796833342622941</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="2">
+        <v>39873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <f>('VAR08'!I22+'VAR07'!I22+'VAR04'!I22+'VAR03'!I22+'VAR02'!I22+'VAR01'!I22)/6</f>
         <v>11.6414907960176</v>
@@ -19136,8 +22874,11 @@
         <f t="shared" si="0"/>
         <v>1.9402484660029333</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="2">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <f>('VAR08'!I23+'VAR07'!I23+'VAR04'!I23+'VAR03'!I23+'VAR02'!I23+'VAR01'!I23)/6</f>
         <v>11.485876425688012</v>
@@ -19146,8 +22887,11 @@
         <f t="shared" si="0"/>
         <v>1.9143127376146687</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="2">
+        <v>39965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <f>('VAR08'!I24+'VAR07'!I24+'VAR04'!I24+'VAR03'!I24+'VAR02'!I24+'VAR01'!I24)/6</f>
         <v>11.453797583576744</v>
@@ -19156,8 +22900,11 @@
         <f t="shared" si="0"/>
         <v>1.9089662639294573</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="2">
+        <v>39995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <f>('VAR08'!I25+'VAR07'!I25+'VAR04'!I25+'VAR03'!I25+'VAR02'!I25+'VAR01'!I25)/6</f>
         <v>11.49506312670313</v>
@@ -19166,8 +22913,11 @@
         <f t="shared" si="0"/>
         <v>1.9158438544505216</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="2">
+        <v>40026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <f>('VAR08'!I26+'VAR07'!I26+'VAR04'!I26+'VAR03'!I26+'VAR02'!I26+'VAR01'!I26)/6</f>
         <v>11.669464291008557</v>
@@ -19176,8 +22926,11 @@
         <f t="shared" si="0"/>
         <v>1.9449107151680929</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" s="2">
+        <v>40057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <f>('VAR08'!I27+'VAR07'!I27+'VAR04'!I27+'VAR03'!I27+'VAR02'!I27+'VAR01'!I27)/6</f>
         <v>11.92560237949626</v>
@@ -19186,8 +22939,11 @@
         <f t="shared" si="0"/>
         <v>1.98760039658271</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" s="2">
+        <v>40087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <f>('VAR08'!I28+'VAR07'!I28+'VAR04'!I28+'VAR03'!I28+'VAR02'!I28+'VAR01'!I28)/6</f>
         <v>12.151561295022361</v>
@@ -19196,8 +22952,11 @@
         <f t="shared" si="0"/>
         <v>2.0252602158370601</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" s="2">
+        <v>40148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <f>('VAR08'!I29+'VAR07'!I29+'VAR04'!I29+'VAR03'!I29+'VAR02'!I29+'VAR01'!I29)/6</f>
         <v>12.306297734382367</v>
@@ -19206,8 +22965,11 @@
         <f t="shared" si="0"/>
         <v>2.0510496223970613</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" s="2">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <f>('VAR08'!I30+'VAR07'!I30+'VAR04'!I30+'VAR03'!I30+'VAR02'!I30+'VAR01'!I30)/6</f>
         <v>12.290220153333037</v>
@@ -19216,8 +22978,11 @@
         <f t="shared" si="0"/>
         <v>2.048370025555506</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" s="2">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <f>('VAR08'!I31+'VAR07'!I31+'VAR04'!I31+'VAR03'!I31+'VAR02'!I31+'VAR01'!I31)/6</f>
         <v>12.097530055855332</v>
@@ -19226,8 +22991,11 @@
         <f t="shared" si="0"/>
         <v>2.016255009309222</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" s="2">
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <f>('VAR08'!I32+'VAR07'!I32+'VAR04'!I32+'VAR03'!I32+'VAR02'!I32+'VAR01'!I32)/6</f>
         <v>11.933088448557859</v>
@@ -19236,8 +23004,11 @@
         <f t="shared" si="0"/>
         <v>1.9888480747596431</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="2">
+        <v>40269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <f>('VAR08'!I33+'VAR07'!I33+'VAR04'!I33+'VAR03'!I33+'VAR02'!I33+'VAR01'!I33)/6</f>
         <v>11.853210973978507</v>
@@ -19246,8 +23017,11 @@
         <f t="shared" si="0"/>
         <v>1.9755351623297512</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="2">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <f>('VAR08'!I34+'VAR07'!I34+'VAR04'!I34+'VAR03'!I34+'VAR02'!I34+'VAR01'!I34)/6</f>
         <v>11.808242746647913</v>
@@ -19256,8 +23030,11 @@
         <f t="shared" si="0"/>
         <v>1.9680404577746522</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" s="2">
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <f>('VAR08'!I35+'VAR07'!I35+'VAR04'!I35+'VAR03'!I35+'VAR02'!I35+'VAR01'!I35)/6</f>
         <v>11.964608423014788</v>
@@ -19266,8 +23043,11 @@
         <f t="shared" si="0"/>
         <v>1.994101403835798</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" s="2">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <f>('VAR08'!I36+'VAR07'!I36+'VAR04'!I36+'VAR03'!I36+'VAR02'!I36+'VAR01'!I36)/6</f>
         <v>12.256124711039462</v>
@@ -19276,8 +23056,11 @@
         <f t="shared" si="0"/>
         <v>2.0426874518399103</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36" s="2">
+        <v>40422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <f>('VAR08'!I37+'VAR07'!I37+'VAR04'!I37+'VAR03'!I37+'VAR02'!I37+'VAR01'!I37)/6</f>
         <v>12.448792437616499</v>
@@ -19286,8 +23069,11 @@
         <f t="shared" si="0"/>
         <v>2.0747987396027496</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37" s="2">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <f>('VAR08'!I38+'VAR07'!I38+'VAR04'!I38+'VAR03'!I38+'VAR02'!I38+'VAR01'!I38)/6</f>
         <v>12.574216466347403</v>
@@ -19296,8 +23082,11 @@
         <f t="shared" si="0"/>
         <v>2.0957027443912337</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38" s="2">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <f>('VAR08'!I39+'VAR07'!I39+'VAR04'!I39+'VAR03'!I39+'VAR02'!I39+'VAR01'!I39)/6</f>
         <v>12.338496126217079</v>
@@ -19306,8 +23095,11 @@
         <f t="shared" si="0"/>
         <v>2.0564160210361799</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39" s="2">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <f>('VAR08'!I40+'VAR07'!I40+'VAR04'!I40+'VAR03'!I40+'VAR02'!I40+'VAR01'!I40)/6</f>
         <v>12.235512960618053</v>
@@ -19316,8 +23108,11 @@
         <f t="shared" si="0"/>
         <v>2.0392521601030089</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40" s="2">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <f>('VAR08'!I41+'VAR07'!I41+'VAR04'!I41+'VAR03'!I41+'VAR02'!I41+'VAR01'!I41)/6</f>
         <v>11.959756336720039</v>
@@ -19326,8 +23121,11 @@
         <f t="shared" si="0"/>
         <v>1.9932927227866732</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41" s="2">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <f>('VAR08'!I42+'VAR07'!I42+'VAR04'!I42+'VAR03'!I42+'VAR02'!I42+'VAR01'!I42)/6</f>
         <v>11.81797090826965</v>
@@ -19336,8 +23134,11 @@
         <f t="shared" si="0"/>
         <v>1.9696618180449417</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42" s="2">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <f>('VAR08'!I43+'VAR07'!I43+'VAR04'!I43+'VAR03'!I43+'VAR02'!I43+'VAR01'!I43)/6</f>
         <v>11.763494970582805</v>
@@ -19346,8 +23147,11 @@
         <f t="shared" si="0"/>
         <v>1.9605824950971342</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43" s="2">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <f>('VAR08'!I44+'VAR07'!I44+'VAR04'!I44+'VAR03'!I44+'VAR02'!I44+'VAR01'!I44)/6</f>
         <v>11.884226933974871</v>
@@ -19356,8 +23160,11 @@
         <f t="shared" si="0"/>
         <v>1.9807044889958119</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44" s="2">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <f>('VAR08'!I45+'VAR07'!I45+'VAR04'!I45+'VAR03'!I45+'VAR02'!I45+'VAR01'!I45)/6</f>
         <v>12.178865152984985</v>
@@ -19366,8 +23173,11 @@
         <f t="shared" si="0"/>
         <v>2.0298108588308308</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" s="2">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <f>('VAR08'!I46+'VAR07'!I46+'VAR04'!I46+'VAR03'!I46+'VAR02'!I46+'VAR01'!I46)/6</f>
         <v>12.540927505605673</v>
@@ -19376,8 +23186,11 @@
         <f t="shared" si="0"/>
         <v>2.0901545842676121</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" s="2">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <f>('VAR08'!I47+'VAR07'!I47+'VAR04'!I47+'VAR03'!I47+'VAR02'!I47+'VAR01'!I47)/6</f>
         <v>12.705738149587155</v>
@@ -19386,8 +23199,11 @@
         <f t="shared" si="0"/>
         <v>2.1176230249311927</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47" s="2">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <f>('VAR08'!I48+'VAR07'!I48+'VAR04'!I48+'VAR03'!I48+'VAR02'!I48+'VAR01'!I48)/6</f>
         <v>12.874932257953327</v>
@@ -19396,8 +23212,11 @@
         <f t="shared" si="0"/>
         <v>2.1458220429922212</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48" s="2">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <f>('VAR08'!I49+'VAR07'!I49+'VAR04'!I49+'VAR03'!I49+'VAR02'!I49+'VAR01'!I49)/6</f>
         <v>12.840501757487708</v>
@@ -19406,8 +23225,11 @@
         <f t="shared" si="0"/>
         <v>2.1400836262479515</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49" s="2">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <f>('VAR08'!I50+'VAR07'!I50+'VAR04'!I50+'VAR03'!I50+'VAR02'!I50+'VAR01'!I50)/6</f>
         <v>12.828915170222253</v>
@@ -19416,8 +23238,11 @@
         <f t="shared" si="0"/>
         <v>2.1381525283703753</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50" s="2">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <f>('VAR08'!I51+'VAR07'!I51+'VAR04'!I51+'VAR03'!I51+'VAR02'!I51+'VAR01'!I51)/6</f>
         <v>13.010385671322659</v>
@@ -19426,8 +23251,11 @@
         <f t="shared" si="0"/>
         <v>2.16839761188711</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" s="2">
+        <v>41091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <f>('VAR08'!I52+'VAR07'!I52+'VAR04'!I52+'VAR03'!I52+'VAR02'!I52+'VAR01'!I52)/6</f>
         <v>13.130967562986308</v>
@@ -19436,8 +23264,11 @@
         <f t="shared" si="0"/>
         <v>2.1884945938310514</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" s="2">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <f>('VAR08'!I53+'VAR07'!I53+'VAR04'!I53+'VAR03'!I53+'VAR02'!I53+'VAR01'!I53)/6</f>
         <v>13.467873979909564</v>
@@ -19446,8 +23277,11 @@
         <f t="shared" si="0"/>
         <v>2.2446456633182605</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" s="2">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <f>('VAR08'!I54+'VAR07'!I54+'VAR04'!I54+'VAR03'!I54+'VAR02'!I54+'VAR01'!I54)/6</f>
         <v>13.692164591218884</v>
@@ -19456,8 +23290,11 @@
         <f t="shared" si="0"/>
         <v>2.2820274318698139</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54" s="2">
+        <v>41244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <f>('VAR08'!I55+'VAR07'!I55+'VAR04'!I55+'VAR03'!I55+'VAR02'!I55+'VAR01'!I55)/6</f>
         <v>13.782316952907552</v>
@@ -19466,8 +23303,11 @@
         <f t="shared" si="0"/>
         <v>2.2970528254845921</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55" s="2">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <f>('VAR08'!I56+'VAR07'!I56+'VAR04'!I56+'VAR03'!I56+'VAR02'!I56+'VAR01'!I56)/6</f>
         <v>13.709200823183252</v>
@@ -19476,8 +23316,11 @@
         <f t="shared" si="0"/>
         <v>2.2848668038638755</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56" s="2">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <f>('VAR08'!I57+'VAR07'!I57+'VAR04'!I57+'VAR03'!I57+'VAR02'!I57+'VAR01'!I57)/6</f>
         <v>13.77043258024298</v>
@@ -19486,8 +23329,11 @@
         <f t="shared" si="0"/>
         <v>2.2950720967071634</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57" s="2">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <f>('VAR08'!I58+'VAR07'!I58+'VAR04'!I58+'VAR03'!I58+'VAR02'!I58+'VAR01'!I58)/6</f>
         <v>13.554701242026232</v>
@@ -19496,8 +23342,11 @@
         <f t="shared" si="0"/>
         <v>2.2591168736710387</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58" s="2">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <f>('VAR08'!I59+'VAR07'!I59+'VAR04'!I59+'VAR03'!I59+'VAR02'!I59+'VAR01'!I59)/6</f>
         <v>13.69482330313987</v>
@@ -19506,8 +23355,11 @@
         <f t="shared" si="0"/>
         <v>2.2824705505233118</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59" s="2">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <f>('VAR08'!I60+'VAR07'!I60+'VAR04'!I60+'VAR03'!I60+'VAR02'!I60+'VAR01'!I60)/6</f>
         <v>13.671089646339098</v>
@@ -19516,8 +23368,11 @@
         <f t="shared" si="0"/>
         <v>2.2785149410565162</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60" s="2">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <f>('VAR08'!I61+'VAR07'!I61+'VAR04'!I61+'VAR03'!I61+'VAR02'!I61+'VAR01'!I61)/6</f>
         <v>13.889592134225383</v>
@@ -19526,8 +23381,11 @@
         <f t="shared" si="0"/>
         <v>2.3149320223708973</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61" s="2">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <f>('VAR08'!I62+'VAR07'!I62+'VAR04'!I62+'VAR03'!I62+'VAR02'!I62+'VAR01'!I62)/6</f>
         <v>13.910556787288625</v>
@@ -19536,8 +23394,11 @@
         <f t="shared" si="0"/>
         <v>2.3184261312147707</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62" s="2">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <f>('VAR08'!I63+'VAR07'!I63+'VAR04'!I63+'VAR03'!I63+'VAR02'!I63+'VAR01'!I63)/6</f>
         <v>13.831849323688459</v>
@@ -19546,8 +23407,11 @@
         <f t="shared" si="0"/>
         <v>2.3053082206147431</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63" s="2">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <f>('VAR08'!I64+'VAR07'!I64+'VAR04'!I64+'VAR03'!I64+'VAR02'!I64+'VAR01'!I64)/6</f>
         <v>13.248007263919616</v>
@@ -19555,6 +23419,9 @@
       <c r="B64">
         <f t="shared" si="0"/>
         <v>2.2080012106532694</v>
+      </c>
+      <c r="D64" s="2">
+        <v>41699</v>
       </c>
     </row>
   </sheetData>
